--- a/relatorio_fluxo_potencia.xlsx
+++ b/relatorio_fluxo_potencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,10 +509,10 @@
         <v>-0.169</v>
       </c>
       <c r="E2" t="n">
-        <v>2.292724835626669</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1613605117351855</v>
+        <v>-0.05100000000000193</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.861117951740154e-12</v>
+        <v>-2.190000004270077e-10</v>
       </c>
       <c r="J2" t="n">
-        <v>4.173474265333872e-13</v>
+        <v>5.431559497217016e-11</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.639299833238256e-10</v>
+        <v>-1.254777573783077e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.060000000000417</v>
+        <v>1.000000000054316</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0.297</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1247726427790449</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2995245457325665</v>
+        <v>-0.08259999999999934</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05822735722095508</v>
+        <v>0.1830000000000009</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.001340261453780935</v>
+        <v>-0.09618901666215789</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.817324315512016e-13</v>
+        <v>-2.860633534424312e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.976791324745717</v>
+        <v>-5.5112246902552</v>
       </c>
       <c r="L3" t="n">
-        <v>1.044999999999318</v>
+        <v>0.9999999999713937</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>0.04399999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8536259892402451</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01729735355413597</v>
+        <v>-0.02829999999999977</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08837401075975493</v>
+        <v>-0.9420000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01246145067275371</v>
+        <v>-0.2464740728827136</v>
       </c>
       <c r="J4" t="n">
-        <v>-4.211483638125822e-12</v>
+        <v>-4.002465962208117e-11</v>
       </c>
       <c r="K4" t="n">
-        <v>-12.71398853015925</v>
+        <v>-14.12192413557934</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009999999995788</v>
+        <v>0.9999999999599753</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>0.039</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4180782803779754</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04852013827437648</v>
+        <v>0.145949704316962</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05992171962202458</v>
+        <v>-0.478</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.009520138274376484</v>
+        <v>-0.106949704316962</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.005283208585625231</v>
+        <v>-0.1928830538006309</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.001186354084029921</v>
+        <v>-0.02431330847696537</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.30270555424361</v>
+        <v>-11.05138492237094</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01781364591597</v>
+        <v>0.9756866915230347</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-0.016</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1811418365317539</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003637718093675989</v>
+        <v>0.2687290587953086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1051418365317539</v>
+        <v>-0.076</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01236228190632401</v>
+        <v>-0.2847290587953086</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001118647611614013</v>
+        <v>-0.1643691352458809</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0003775333000365664</v>
+        <v>-0.02510788396555416</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.764093786907871</v>
+        <v>-9.417657731804001</v>
       </c>
       <c r="L6" t="n">
-        <v>1.019622466699963</v>
+        <v>0.9748921160344458</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>0.047</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1281794215520881</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06546877551424177</v>
+        <v>-0.2895062827972303</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01617942155208812</v>
+        <v>-0.1119999999999991</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003431685778027107</v>
+        <v>-0.266035705916556</v>
       </c>
       <c r="J7" t="n">
-        <v>1.652890779169248e-12</v>
+        <v>-2.157276717491932e-11</v>
       </c>
       <c r="K7" t="n">
-        <v>-14.19662111169602</v>
+        <v>-15.2427231488022</v>
       </c>
       <c r="L7" t="n">
-        <v>1.070000000001653</v>
+        <v>0.9999999999784273</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09901185060037429</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0001213343467657869</v>
+        <v>-0.1075692785269826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09901185060037429</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001213343467657869</v>
+        <v>0.1075692785269826</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.00597372939973208</v>
+        <v>-0.2502452821391873</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.000174723575749667</v>
+        <v>-0.005110038315011408</v>
       </c>
       <c r="K8" t="n">
-        <v>-13.34226948255787</v>
+        <v>-14.33799850963595</v>
       </c>
       <c r="L8" t="n">
-        <v>1.06182527642425</v>
+        <v>0.9948899616849886</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0.174</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.163336342344337e-16</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1732614249219409</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.163336342344337e-16</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.005973729399732015</v>
+        <v>-0.2502452821391873</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.081173417923006e-13</v>
+        <v>-2.900958453029469e-12</v>
       </c>
       <c r="K9" t="n">
-        <v>-13.34226948255786</v>
+        <v>-14.33799850963595</v>
       </c>
       <c r="L9" t="n">
-        <v>1.089999999999892</v>
+        <v>0.999999999997099</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>-0.166</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05151864811409684</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2621764563833986</v>
+        <v>-0.2475204862922933</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3465186481140968</v>
+        <v>-0.295</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09617645638339858</v>
+        <v>0.08152048629229328</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0160049548413381</v>
+        <v>-0.2811001544579965</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0004536853299800472</v>
+        <v>-0.009684789225087781</v>
       </c>
       <c r="K10" t="n">
-        <v>-14.91701636370615</v>
+        <v>-16.10585247091875</v>
       </c>
       <c r="L10" t="n">
-        <v>1.05645368532998</v>
+        <v>0.9903152107749122</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>-0.058</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3175267167070782</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03230994252322606</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2275267167070782</v>
+        <v>-0.09</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.09030994252322605</v>
+        <v>-0.058</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.001300060332692205</v>
+        <v>-0.284057983150225</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0005644905560201391</v>
+        <v>-0.0157637479402849</v>
       </c>
       <c r="K11" t="n">
-        <v>-15.07448797017564</v>
+        <v>-16.27532357150615</v>
       </c>
       <c r="L11" t="n">
-        <v>1.05156449055602</v>
+        <v>0.9842362520597151</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-0.018</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07074703828961362</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06405483806246901</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1057470382896136</v>
+        <v>-0.035</v>
       </c>
       <c r="H12" t="n">
-        <v>0.046054838062469</v>
+        <v>-0.018</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01340113683780156</v>
+        <v>-0.2777521971184861</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002700759123210353</v>
+        <v>-0.01158671343489873</v>
       </c>
       <c r="K12" t="n">
-        <v>-14.76782858148333</v>
+        <v>-15.91402864537496</v>
       </c>
       <c r="L12" t="n">
-        <v>1.057270075912321</v>
+        <v>0.9884132865651013</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-0.016</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07332661081618251</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007771110336341633</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01232661081618251</v>
+        <v>-0.061</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.008228889663658367</v>
+        <v>-0.01600000000000044</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0008879818479342479</v>
+        <v>-0.2828476930616354</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002408088940037723</v>
+        <v>-0.01502053130834835</v>
       </c>
       <c r="K13" t="n">
-        <v>-15.05087761217086</v>
+        <v>-16.20597905744345</v>
       </c>
       <c r="L13" t="n">
-        <v>1.055240808894004</v>
+        <v>0.9849794686916516</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-0.058</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1364249216480733</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06534540350715291</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001424921648073285</v>
+        <v>-0.135</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007345403507152917</v>
+        <v>-0.058</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.002309946543726684</v>
+        <v>-0.2845722839002718</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0004820159551723467</v>
+        <v>-0.01961324296197731</v>
       </c>
       <c r="K14" t="n">
-        <v>-15.13235018785637</v>
+        <v>-16.30479083388424</v>
       </c>
       <c r="L14" t="n">
-        <v>1.050482015955172</v>
+        <v>0.9803867570380227</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,560 @@
         <v>-0.05</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.204458900335598</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01798100403741303</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05545890033559803</v>
+        <v>-0.149</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.03201899596258697</v>
+        <v>-0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0001767388624253513</v>
+        <v>-0.3016808689078929</v>
       </c>
       <c r="J15" t="n">
-        <v>-4.85166267956627e-05</v>
+        <v>-0.03246605828967493</v>
       </c>
       <c r="K15" t="n">
-        <v>-16.01012639089292</v>
+        <v>-17.28504054826173</v>
       </c>
       <c r="L15" t="n">
-        <v>1.035951483373204</v>
+        <v>0.967533941710325</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.169</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.203796927043575</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.462239711372178</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1.448223079034366e-11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-6.323888973119233e-13</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1.337754644005187e-08</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.000000000053683</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2080631826094089</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3701095686784996</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.02506318260940885</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.006789666494693323</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.108392574360308e-11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-5.900243924702511</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9999999999603097</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.9420000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04399999999999998</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.9169912106992825</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.429667052516165</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.02500878930071759</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.01288895350472265</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-5.076605161980488e-12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-14.8604067737403</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9999999999548987</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.478</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.4407891917265471</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0900502133198821</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.03721080827345286</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.0510502133198821</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.01028328374623807</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.006825721361969668</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-11.64057368056586</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.968860970161065</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.076</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.06618441304345456</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09198786550639397</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.009815586956545441</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.107987865506394</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.008497686561145639</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.007547595812080154</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-9.904539307382684</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9673445202223656</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.1031252215059336</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04881680663842565</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.008874778494066371</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.01415365175931772</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-5.594590698556935e-12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-16.05366765930902</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9999999999728326</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.004187380719463483</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01152242588046546</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.004187380719463483</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.01152242588046546</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.01267856947197698</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.004837882340601356</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-15.06442703064364</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9900520793443872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.092875789865388e-16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02900958451374218</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.092875789865388e-16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.012678569471977</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-2.746456054832428e-12</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-15.06442703064364</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9999999999943525</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.295</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.166</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.2887151331538456</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1537484693653079</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.006284866846154424</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.01225153063469206</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.01343594058603212</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.005378252507283232</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-16.87567516028692</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9849369582676291</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.08791915565725966</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.05720171511626489</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.002080844342740334</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0007982848837351092</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.01366834073743628</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.004613125398379127</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-17.05846180870797</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.979623126661336</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.03485714142229147</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.01724417297503636</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0001428585777085364</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.0007558270249636463</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.01382965142117524</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.002450136914641487</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-16.7064093039454</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9859631496504598</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.05994031842231408</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.01523261989993004</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.00105968157768592</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0007673801000699556</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.0144584933749981</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.0008940690637327105</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-17.0343897059487</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.984085399627919</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.1328677657685358</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.05495634468188747</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.002132234231464192</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.003043655318112522</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.01435173784282899</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.001470725483136536</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-17.12708484095653</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9789160315548862</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.149</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.1423739916983684</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.04808733058636151</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.006626008301631625</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.00191266941363849</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.01489108953379932</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.004581053341793307</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-18.13823713089986</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9629528883685318</v>
       </c>
     </row>
   </sheetData>
